--- a/replication/results/table5_panel1.xlsx
+++ b/replication/results/table5_panel1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>drink_def</t>
   </si>
@@ -37,25 +37,28 @@
     <t>police_report_only</t>
   </si>
   <si>
-    <t>(0.49)</t>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(0.34)</t>
+  </si>
+  <si>
+    <t>any_evidence</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
+  </si>
+  <si>
+    <t>police_report_primary</t>
   </si>
   <si>
     <t>(0.35)</t>
   </si>
   <si>
-    <t>any_evidence</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
-  </si>
-  <si>
-    <t>police_report_primary</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
+    <t>(0.27)</t>
   </si>
   <si>
     <t>bac_test_primary</t>
@@ -64,16 +67,16 @@
     <t>(0.46)</t>
   </si>
   <si>
-    <t>(0.31)</t>
+    <t>(0.28)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.06)</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -505,13 +508,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -545,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/replication/results/table5_panel1.xlsx
+++ b/replication/results/table5_panel1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>drink_def</t>
   </si>
@@ -31,49 +31,64 @@
     <t>lambda_se</t>
   </si>
   <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>proportion_se</t>
+  </si>
+  <si>
     <t>total_dof</t>
   </si>
   <si>
     <t>police_report_only</t>
   </si>
   <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(0.34)</t>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>(0.37)</t>
+  </si>
+  <si>
+    <t>(0.008)</t>
   </si>
   <si>
     <t>any_evidence</t>
   </si>
   <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
   </si>
   <si>
     <t>police_report_primary</t>
   </si>
   <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.004)</t>
   </si>
   <si>
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(0.46)</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>(0.005)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
   </si>
   <si>
     <t>(0.16)</t>
@@ -434,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,19 +477,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -502,19 +517,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -542,19 +557,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -562,18 +577,58 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.201</v>
+      </c>
+      <c r="C7">
+        <v>0.174</v>
+      </c>
+      <c r="D7">
+        <v>0.191</v>
+      </c>
+      <c r="E7">
+        <v>0.178</v>
+      </c>
+      <c r="F7">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>1467</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>6917</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>3332</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>3292</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>6735</v>
       </c>
     </row>
